--- a/EMDAT DATA SETS/south-eastern-flood-2000-2022.xlsx
+++ b/EMDAT DATA SETS/south-eastern-flood-2000-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ass work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mushe\Documents\GitHub\Beta-Tech_BSIT_3207\EMDAT DATA SETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A550ADF9-EDBB-4A22-B834-A319095A030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF791EF3-7E3E-4F1E-9A40-C1754FD189AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="emdat data" sheetId="1" r:id="rId1"/>
@@ -6931,32 +6931,32 @@
   <dimension ref="A1:AQ540"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O187" sqref="O1:O1048576"/>
+      <selection activeCell="O187" sqref="O187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="15" max="15" width="164.375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="45.125" customWidth="1"/>
+    <col min="15" max="15" width="164.3984375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="45.09765625" customWidth="1"/>
     <col min="21" max="21" width="12.5" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="16.375" customWidth="1"/>
-    <col min="25" max="25" width="10.625" customWidth="1"/>
-    <col min="30" max="30" width="11.75" customWidth="1"/>
-    <col min="32" max="32" width="10.25" customWidth="1"/>
+    <col min="23" max="23" width="16.3984375" customWidth="1"/>
+    <col min="25" max="25" width="10.59765625" customWidth="1"/>
+    <col min="30" max="30" width="11.69921875" customWidth="1"/>
+    <col min="32" max="32" width="10.19921875" customWidth="1"/>
     <col min="33" max="33" width="12" customWidth="1"/>
     <col min="34" max="34" width="14.5" customWidth="1"/>
-    <col min="35" max="35" width="18.75" customWidth="1"/>
-    <col min="36" max="36" width="39.625" customWidth="1"/>
-    <col min="37" max="37" width="24.625" customWidth="1"/>
-    <col min="38" max="38" width="27.75" customWidth="1"/>
-    <col min="39" max="39" width="33.625" customWidth="1"/>
-    <col min="40" max="40" width="31.125" customWidth="1"/>
+    <col min="35" max="35" width="18.69921875" customWidth="1"/>
+    <col min="36" max="36" width="39.59765625" customWidth="1"/>
+    <col min="37" max="37" width="24.59765625" customWidth="1"/>
+    <col min="38" max="38" width="27.69921875" customWidth="1"/>
+    <col min="39" max="39" width="33.59765625" customWidth="1"/>
+    <col min="40" max="40" width="31.09765625" customWidth="1"/>
     <col min="41" max="41" width="12.5" hidden="1" customWidth="1"/>
     <col min="42" max="66" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15">
+    <row r="1" spans="1:43" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:43" ht="15">
+    <row r="2" spans="1:43" ht="14.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -6976,7 +6976,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:43" ht="15">
+    <row r="3" spans="1:43" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6987,7 +6987,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:43" ht="15">
+    <row r="4" spans="1:43" ht="14.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:43" ht="15">
+    <row r="5" spans="1:43" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -7009,7 +7009,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:43" ht="15">
+    <row r="6" spans="1:43" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
